--- a/PredictionSheets/VM 2014 Tippekonkuranse - Brian.xlsx
+++ b/PredictionSheets/VM 2014 Tippekonkuranse - Brian.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\R\Documents\GitHub\VMTipping\PredictionSheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="2100" yWindow="0" windowWidth="25365" windowHeight="14265" activeTab="1"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Sluttspilltipp" sheetId="2" r:id="rId2"/>
     <sheet name="Kampoppsett" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="131">
   <si>
     <t>Group A</t>
   </si>
@@ -414,41 +419,17 @@
   </si>
   <si>
     <t>BRIAN SOLLI</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
-    <t>Spania</t>
-  </si>
-  <si>
-    <t>Nederland</t>
-  </si>
-  <si>
-    <t>Frankrike</t>
-  </si>
-  <si>
-    <t>Sveits</t>
-  </si>
-  <si>
-    <t>Tyskland</t>
-  </si>
-  <si>
-    <t>Belgia</t>
-  </si>
-  <si>
-    <t>Russland</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-414]d/\ mmmm;@"/>
     <numFmt numFmtId="165" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1782,8 +1763,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1793,12 +1774,12 @@
       <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21">
+    <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="19" t="s">
         <v>44</v>
       </c>
@@ -1808,13 +1789,13 @@
       <c r="N1" s="52"/>
       <c r="O1" s="52"/>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="L2" s="52"/>
       <c r="M2" s="52"/>
       <c r="N2" s="52"/>
       <c r="O2" s="52"/>
     </row>
-    <row r="3" spans="1:15" ht="27.95" customHeight="1" thickBot="1">
+    <row r="3" spans="1:15" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
         <v>45</v>
       </c>
@@ -1829,13 +1810,13 @@
       <c r="N3" s="52"/>
       <c r="O3" s="52"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="L4" s="52"/>
       <c r="M4" s="52"/>
       <c r="N4" s="52"/>
       <c r="O4" s="52"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -1853,7 +1834,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C9" s="1" t="s">
         <v>41</v>
       </c>
@@ -1868,7 +1849,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1894,7 +1875,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="27.95" customHeight="1">
+    <row r="11" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>1</v>
       </c>
@@ -1928,7 +1909,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="27.95" customHeight="1">
+    <row r="12" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>3</v>
       </c>
@@ -1962,7 +1943,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="27.95" customHeight="1">
+    <row r="13" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -1996,7 +1977,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="27.95" customHeight="1">
+    <row r="14" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>4</v>
       </c>
@@ -2030,7 +2011,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="27.95" customHeight="1">
+    <row r="15" spans="1:15" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2045,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="27.95" customHeight="1" thickBot="1">
+    <row r="16" spans="1:15" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
@@ -2098,7 +2079,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="20.25" customHeight="1">
+    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="2"/>
@@ -2106,7 +2087,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="18" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -2120,7 +2101,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="27.95" customHeight="1">
+    <row r="19" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>6</v>
       </c>
@@ -2154,7 +2135,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="27.95" customHeight="1">
+    <row r="20" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>8</v>
       </c>
@@ -2188,7 +2169,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="27.95" customHeight="1">
+    <row r="21" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>6</v>
       </c>
@@ -2222,7 +2203,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="27.95" customHeight="1">
+    <row r="22" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>9</v>
       </c>
@@ -2256,7 +2237,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="27.95" customHeight="1">
+    <row r="23" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>9</v>
       </c>
@@ -2290,7 +2271,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="27.95" customHeight="1" thickBot="1">
+    <row r="24" spans="1:11" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2305,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="20.25" customHeight="1">
+    <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="2"/>
@@ -2332,7 +2313,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="26" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -2346,7 +2327,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="2"/>
     </row>
-    <row r="27" spans="1:11" ht="27.95" customHeight="1">
+    <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>11</v>
       </c>
@@ -2380,7 +2361,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="27.95" customHeight="1">
+    <row r="28" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>13</v>
       </c>
@@ -2414,7 +2395,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="27.95" customHeight="1">
+    <row r="29" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
@@ -2448,7 +2429,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="27.95" customHeight="1">
+    <row r="30" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>14</v>
       </c>
@@ -2482,7 +2463,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="27.95" customHeight="1">
+    <row r="31" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>14</v>
       </c>
@@ -2516,7 +2497,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="27.95" customHeight="1" thickBot="1">
+    <row r="32" spans="1:11" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>12</v>
       </c>
@@ -2550,7 +2531,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="20.25" customHeight="1">
+    <row r="33" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="2"/>
@@ -2558,7 +2539,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1">
+    <row r="34" spans="1:11" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -2572,7 +2553,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="2"/>
     </row>
-    <row r="35" spans="1:11" ht="27.95" customHeight="1">
+    <row r="35" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>16</v>
       </c>
@@ -2606,7 +2587,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="27.95" customHeight="1">
+    <row r="36" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>18</v>
       </c>
@@ -2640,7 +2621,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="27.95" customHeight="1">
+    <row r="37" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>16</v>
       </c>
@@ -2674,7 +2655,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="27.95" customHeight="1">
+    <row r="38" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>19</v>
       </c>
@@ -2708,7 +2689,7 @@
         <v>H</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="27.95" customHeight="1">
+    <row r="39" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>19</v>
       </c>
@@ -2742,7 +2723,7 @@
         <v>A</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="27.95" customHeight="1" thickBot="1">
+    <row r="40" spans="1:11" ht="27.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>17</v>
       </c>
@@ -2776,7 +2757,7 @@
         <v>D</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="21"/>
     </row>
   </sheetData>
@@ -2792,17 +2773,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:D20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -2810,31 +2791,31 @@
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="4" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="76" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>134</v>
+        <v>23</v>
       </c>
       <c r="D4" s="78" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="24" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>3</v>
       </c>
@@ -2842,15 +2823,15 @@
         <v>11</v>
       </c>
       <c r="C5" s="80" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="D5" s="81" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="24" customHeight="1">
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="B6" s="80" t="s">
         <v>16</v>
@@ -2859,12 +2840,12 @@
         <v>26</v>
       </c>
       <c r="D6" s="81" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="82" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="B7" s="83" t="s">
         <v>18</v>
@@ -2873,10 +2854,10 @@
         <v>27</v>
       </c>
       <c r="D7" s="84" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" thickBot="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>47</v>
       </c>
@@ -2884,12 +2865,12 @@
       <c r="C10" s="23"/>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:4" ht="24" customHeight="1">
+    <row r="11" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>133</v>
+        <v>7</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>26</v>
@@ -2898,56 +2879,56 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="12" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="27" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>136</v>
+        <v>31</v>
       </c>
       <c r="D12" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="16" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="C16" s="31" t="s">
         <v>26</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" thickBot="1">
+    <row r="20" spans="1:4" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="85" t="s">
-        <v>131</v>
+        <v>1</v>
       </c>
       <c r="B20" s="86" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>132</v>
+        <v>6</v>
       </c>
       <c r="D20" s="87" t="s">
-        <v>137</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -2962,8 +2943,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2973,7 +2954,7 @@
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="33" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" customWidth="1"/>
@@ -2981,7 +2962,7 @@
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -2989,7 +2970,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="38">
         <v>41802</v>
       </c>
@@ -3007,7 +2988,7 @@
       </c>
       <c r="G2" s="36"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="42">
         <v>41803</v>
       </c>
@@ -3034,7 +3015,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
         <v>41807</v>
       </c>
@@ -3061,7 +3042,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="42">
         <v>41809</v>
       </c>
@@ -3088,7 +3069,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="42">
         <v>41813</v>
       </c>
@@ -3115,7 +3096,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>41813</v>
       </c>
@@ -3142,7 +3123,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="49"/>
       <c r="B8" s="50"/>
       <c r="C8" s="21"/>
@@ -3161,7 +3142,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="38">
         <v>41803</v>
       </c>
@@ -3188,7 +3169,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="42">
         <v>41804</v>
       </c>
@@ -3215,7 +3196,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="42">
         <v>41808</v>
       </c>
@@ -3231,7 +3212,7 @@
       <c r="F11" s="34"/>
       <c r="G11" s="37"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="42">
         <v>41808</v>
       </c>
@@ -3249,7 +3230,7 @@
       </c>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="42">
         <v>41813</v>
       </c>
@@ -3276,7 +3257,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>41813</v>
       </c>
@@ -3303,7 +3284,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="52" customFormat="1">
+    <row r="15" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
       <c r="B15" s="50"/>
       <c r="C15" s="21"/>
@@ -3322,7 +3303,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
         <v>41804</v>
       </c>
@@ -3351,7 +3332,7 @@
       </c>
       <c r="K16" s="21"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="42">
         <v>41805</v>
       </c>
@@ -3367,7 +3348,7 @@
       <c r="F17" s="34"/>
       <c r="G17" s="37"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="42">
         <v>41809</v>
       </c>
@@ -3385,7 +3366,7 @@
       </c>
       <c r="G18" s="37"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="42">
         <v>41810</v>
       </c>
@@ -3412,7 +3393,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="42">
         <v>41814</v>
       </c>
@@ -3439,7 +3420,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>41814</v>
       </c>
@@ -3455,7 +3436,7 @@
       <c r="F21" s="34"/>
       <c r="G21" s="37"/>
     </row>
-    <row r="22" spans="1:10" s="52" customFormat="1">
+    <row r="22" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="49"/>
       <c r="B22" s="50"/>
       <c r="C22" s="21"/>
@@ -3465,7 +3446,7 @@
       </c>
       <c r="G22" s="54"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="38">
         <v>41804</v>
       </c>
@@ -3490,7 +3471,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="42">
         <v>41805</v>
       </c>
@@ -3506,7 +3487,7 @@
       <c r="F24" s="34"/>
       <c r="G24" s="37"/>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
         <v>41809</v>
       </c>
@@ -3524,7 +3505,7 @@
       </c>
       <c r="G25" s="37"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="42">
         <v>41810</v>
       </c>
@@ -3549,7 +3530,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="42">
         <v>41814</v>
       </c>
@@ -3564,7 +3545,7 @@
       </c>
       <c r="F27" s="33"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>41814</v>
       </c>
@@ -3579,7 +3560,7 @@
       </c>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="1:10" s="52" customFormat="1">
+    <row r="29" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="49"/>
       <c r="B29" s="50"/>
       <c r="C29" s="21"/>
@@ -3587,7 +3568,7 @@
       <c r="F29" s="55"/>
       <c r="G29" s="56"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="38">
         <v>41805</v>
       </c>
@@ -3605,7 +3586,7 @@
       <c r="G30" s="74"/>
       <c r="H30" s="75"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="42">
         <v>41805</v>
       </c>
@@ -3620,7 +3601,7 @@
       </c>
       <c r="F31" s="33"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="42">
         <v>41810</v>
       </c>
@@ -3635,7 +3616,7 @@
       </c>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="42">
         <v>41811</v>
       </c>
@@ -3650,7 +3631,7 @@
       </c>
       <c r="F33" s="33"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="42">
         <v>41815</v>
       </c>
@@ -3665,7 +3646,7 @@
       </c>
       <c r="F34" s="33"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>41815</v>
       </c>
@@ -3680,14 +3661,14 @@
       </c>
       <c r="F35" s="33"/>
     </row>
-    <row r="36" spans="1:7" s="52" customFormat="1">
+    <row r="36" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="49"/>
       <c r="B36" s="50"/>
       <c r="C36" s="21"/>
       <c r="D36" s="51"/>
       <c r="G36" s="56"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="38">
         <v>41806</v>
       </c>
@@ -3701,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="42">
         <v>41806</v>
       </c>
@@ -3715,7 +3696,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="42">
         <v>41811</v>
       </c>
@@ -3729,7 +3710,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="42">
         <v>41812</v>
       </c>
@@ -3743,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="42">
         <v>41815</v>
       </c>
@@ -3757,7 +3738,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>41815</v>
       </c>
@@ -3771,14 +3752,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="52" customFormat="1">
+    <row r="43" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="49"/>
       <c r="B43" s="50"/>
       <c r="C43" s="21"/>
       <c r="D43" s="51"/>
       <c r="G43" s="56"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="38">
         <v>41806</v>
       </c>
@@ -3792,7 +3773,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="42">
         <v>41807</v>
       </c>
@@ -3806,7 +3787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="42">
         <v>41811</v>
       </c>
@@ -3820,7 +3801,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="42">
         <v>41813</v>
       </c>
@@ -3834,7 +3815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="42">
         <v>41816</v>
       </c>
@@ -3848,7 +3829,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>41816</v>
       </c>
@@ -3862,14 +3843,14 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="52" customFormat="1">
+    <row r="50" spans="1:7" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="49"/>
       <c r="B50" s="50"/>
       <c r="C50" s="21"/>
       <c r="D50" s="51"/>
       <c r="G50" s="56"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="38">
         <v>41807</v>
       </c>
@@ -3883,7 +3864,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="42">
         <v>41808</v>
       </c>
@@ -3897,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="42">
         <v>41812</v>
       </c>
@@ -3911,7 +3892,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="42">
         <v>41812</v>
       </c>
@@ -3925,7 +3906,7 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="42">
         <v>41816</v>
       </c>
@@ -3939,7 +3920,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>41816</v>
       </c>
